--- a/BalanceSheet/CL_bal.xlsx
+++ b/BalanceSheet/CL_bal.xlsx
@@ -507,19 +507,19 @@
         <v>1676000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-37000000.0</v>
+        <v>1673000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-38000000.0</v>
+        <v>1578000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-205000000.0</v>
+        <v>1524000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>29000000.0</v>
+        <v>1301000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>1400000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1371000000.0</v>
@@ -1341,10 +1341,8 @@
           <t>Long Term Assets (Tax, Deferred)</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>201000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>291000000.0</v>
@@ -1471,7 +1469,7 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1141000000.0</v>
+        <v>940000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>251000000.0</v>
@@ -1851,10 +1849,8 @@
           <t>Notes Payable</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>254000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>258000000.0</v>
@@ -1980,25 +1976,23 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>1306000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>52000000.0</v>
+        <v>1393000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>121000000.0</v>
+        <v>1225000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>127000000.0</v>
+        <v>1189000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>220000000.0</v>
+        <v>1216000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>88000000.0</v>
+        <v>1237000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1188000000.0</v>
@@ -2110,7 +2104,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>7833000000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>404000000.0</v>
@@ -2254,10 +2248,8 @@
           <t>Current Part of Taxes to Pay</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>422000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>403000000.0</v>
@@ -2579,7 +2571,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>12109000000.0</v>
+        <v>4539000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4404000000.0</v>
@@ -2705,10 +2697,8 @@
           <t>Long Term Debt (Total)</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>7570000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7810000000.0</v>
@@ -2834,25 +2824,23 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>415000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>4000000.0</v>
+        <v>135000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>23000000.0</v>
+        <v>198000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-48000000.0</v>
+        <v>176000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-99000000.0</v>
+        <v>236000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>330000000.0</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>587000000.0</v>
@@ -2964,7 +2952,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3029000000.0</v>
+        <v>2614000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2179000000.0</v>
@@ -3091,7 +3079,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3029000000.0</v>
+        <v>10599000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10415000000.0</v>
@@ -3344,10 +3332,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>3011000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2969000000.0</v>
@@ -3473,10 +3459,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>1466000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1466000000.0</v>
@@ -3602,10 +3586,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>23624000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>23699000000.0</v>
@@ -3731,10 +3713,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>23384000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>23045000000.0</v>
@@ -3861,7 +3841,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>401000000.0</v>
+        <v>663000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>743000000.0</v>
@@ -4241,10 +4221,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>845969000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>849894000.0</v>
@@ -4497,10 +4475,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>6838000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>7289000000.0</v>
@@ -4626,10 +4602,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>7833000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>8214000000.0</v>
